--- a/EmcReportWebApi/Document/对应表.xlsx
+++ b/EmcReportWebApi/Document/对应表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProject\EmcWebApi\EmcReportWebApi\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA217DB-9A65-49F3-A1C0-DA112DAC1141}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EB38DB-A1AF-471D-8DDA-FAB40A3FFCB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="2595" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>sygdy</t>
   </si>
@@ -85,6 +85,13 @@
   </si>
   <si>
     <t>试验频率（Hz）</t>
+  </si>
+  <si>
+    <t>sysjTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验数据的标题  (电快速瞬变脉冲群实验有两个实验标题:1.交、直流电源线,2.信号电缆和互连电缆)</t>
   </si>
 </sst>
 </file>
@@ -409,94 +416,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="82.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
